--- a/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22540" yWindow="6680" windowWidth="22280" windowHeight="12020" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="-20980" yWindow="8380" windowWidth="20580" windowHeight="12940" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4692,9 +4692,6 @@
     <t>!Intention type</t>
   </si>
   <si>
-    <t>test_case_00001</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -4807,6 +4804,9 @@
   </si>
   <si>
     <t>Volume not used</t>
+  </si>
+  <si>
+    <t>test_case_00003</t>
   </si>
 </sst>
 </file>
@@ -6095,22 +6095,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6123,22 +6123,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6339,7 +6339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -6406,21 +6406,21 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6430,21 +6430,21 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -7331,7 +7331,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7406,19 +7406,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="24">
@@ -7428,12 +7428,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="8"/>
       <c r="D5" s="24">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -8267,11 +8267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -8302,7 +8302,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8320,7 +8320,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9985,7 +9985,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10017,7 +10017,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10049,7 +10049,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10313,13 +10313,13 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
@@ -10587,24 +10587,24 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -10613,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -10626,7 +10626,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U4" s="3"/>
     </row>
@@ -11018,10 +11018,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11034,13 +11034,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -11280,17 +11280,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11519,14 +11519,14 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18">
         <v>100</v>
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>

--- a/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang.xlsx
@@ -2872,7 +2872,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3090,7 +3090,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3306,7 +3306,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3685,7 +3685,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3996,7 +3996,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4267,7 +4267,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4758,7 +4758,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5048,7 +5048,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5266,7 +5266,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5798,7 +5798,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6120,7 +6120,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6285,7 +6285,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6621,7 +6621,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7018,7 +7018,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7304,7 +7304,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7677,7 +7677,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7850,7 +7850,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8029,7 +8029,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8240,7 +8240,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8744,7 +8744,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9079,7 +9079,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9326,7 +9326,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
